--- a/PythonResources/Data/Consumption/Sympheny/futu_1065_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1065_hea.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>97.71779720773638</v>
+        <v>97.71779720773635</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>102.4998373455736</v>
+        <v>102.4998373455735</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>64.86072385029698</v>
+        <v>64.86072385029696</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -487,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>71.72180993639773</v>
+        <v>71.72180993639772</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>93.66491781408864</v>
+        <v>93.66491781408862</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>96.66127611336223</v>
+        <v>96.66127611336222</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>193.8902308286115</v>
+        <v>193.8902308286114</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>173.4447159584801</v>
+        <v>173.44471595848</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>57.42316703114936</v>
+        <v>57.42316703114935</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>116.8096169502911</v>
+        <v>116.809616950291</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8.2336549885673</v>
+        <v>8.233654988567299</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -959,7 +959,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>32.68767829709315</v>
+        <v>32.68767829709314</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>35.5691527492115</v>
+        <v>35.56915274921149</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>138.460239931398</v>
+        <v>138.4602399313979</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>7.178188949932331</v>
+        <v>7.17818894993233</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>22.43836862592472</v>
+        <v>22.43836862592471</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>37.71443275221255</v>
+        <v>37.71443275221254</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>7.148031940054078</v>
+        <v>7.148031940054077</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>48.64862013362868</v>
+        <v>48.64862013362867</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>58.544163754029</v>
+        <v>58.54416375402899</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>54.66361013111413</v>
+        <v>54.66361013111412</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>51.83869838945742</v>
+        <v>51.83869838945741</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>70.81973727939811</v>
+        <v>70.8197372793981</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>84.90561061057835</v>
+        <v>84.90561061057834</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>94.5280120229463</v>
+        <v>94.52801202294629</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>98.55832494661712</v>
+        <v>98.55832494661711</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>59.78180275029586</v>
+        <v>59.78180275029585</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>64.45599274590566</v>
+        <v>64.45599274590565</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>91.81505341805824</v>
+        <v>91.8150534180582</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>215.7295915586163</v>
+        <v>215.7295915586162</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>194.0930359873652</v>
+        <v>194.0930359873651</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>9.870661889217976</v>
+        <v>9.870661889217974</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>67.06168735064368</v>
+        <v>67.06168735064367</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>93.86361997830105</v>
+        <v>93.86361997830102</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>217.5211348179531</v>
+        <v>217.521134817953</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>44.61860028099652</v>
+        <v>44.61860028099651</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>83.78226931938941</v>
+        <v>83.7822693193894</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>70.11695292868821</v>
+        <v>70.11695292868819</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>148.813853585226</v>
+        <v>148.8138535852259</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>43.53570279314285</v>
+        <v>43.53570279314284</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>48.61843381664656</v>
+        <v>48.61843381664655</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>59.18833389700664</v>
+        <v>59.18833389700663</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>176.4841557004369</v>
+        <v>176.4841557004368</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>5.017171032155169</v>
+        <v>5.017171032155168</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>29.29397428360251</v>
+        <v>29.2939742836025</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>52.49810822644545</v>
+        <v>52.49810822644544</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>24.68534427934125</v>
+        <v>24.68534427934124</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>22.52948441184453</v>
+        <v>22.52948441184452</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>26.83630986049233</v>
+        <v>26.83630986049232</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>40.96752128135348</v>
+        <v>40.96752128135347</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>213.9814228130014</v>
+        <v>213.9814228130013</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>118.4056818268408</v>
+        <v>118.4056818268407</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>183.1664684529542</v>
+        <v>183.1664684529541</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>162.9029506978315</v>
+        <v>162.9029506978314</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>7.14422201655148</v>
+        <v>7.144222016551479</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>41.61227756640844</v>
+        <v>41.61227756640843</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>68.37640403007848</v>
+        <v>68.37640403007846</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>188.3464990612935</v>
+        <v>188.3464990612934</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>79.13328343310449</v>
+        <v>79.13328343310448</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>87.02773800152515</v>
+        <v>87.02773800152514</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>46.86059372675581</v>
+        <v>46.8605937267558</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>39.68885233967403</v>
+        <v>39.68885233967402</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>80.60830997068705</v>
+        <v>80.60830997068703</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>88.26361857156004</v>
+        <v>88.26361857156003</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>57.65234858338253</v>
+        <v>57.65234858338252</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>128.5954687700571</v>
+        <v>128.595468770057</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>28.55382337546328</v>
+        <v>28.55382337546327</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>62.86227243766526</v>
+        <v>62.86227243766525</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>6.043476502443334</v>
+        <v>6.043476502443333</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>49.6295289000282</v>
+        <v>49.62952890002819</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>5.484209039365889</v>
+        <v>5.484209039365888</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>83.7391878767062</v>
+        <v>83.73918787670618</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>95.37176354325231</v>
+        <v>95.3717635432523</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>5.842693533856446</v>
+        <v>5.842693533856445</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>79.94010800253918</v>
+        <v>79.94010800253916</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>78.36104124623185</v>
+        <v>78.36104124623184</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>47.40570585866591</v>
+        <v>47.4057058586659</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>55.79486434034692</v>
+        <v>55.79486434034691</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>63.01232480945987</v>
+        <v>63.01232480945986</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>45.50514017294709</v>
+        <v>45.50514017294708</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>63.92231038450335</v>
+        <v>63.92231038450334</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>5.645427417733495</v>
+        <v>5.645427417733494</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>47.7902150613896</v>
+        <v>47.79021506138959</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>174.4833597194959</v>
+        <v>174.4833597194958</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>85.75463740958027</v>
+        <v>85.75463740958025</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>7.123648429637455</v>
+        <v>7.123648429637454</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>9.201756550577322</v>
+        <v>9.20175655057732</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>131.5182662386267</v>
+        <v>131.5182662386266</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>81.85151731668847</v>
+        <v>81.85151731668846</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>4.379858751482208</v>
+        <v>4.379858751482207</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>35.69634557999052</v>
+        <v>35.69634557999051</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>40.03526230737174</v>
+        <v>40.03526230737173</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>127.224775522238</v>
+        <v>127.2247755222379</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>62.04929337641869</v>
+        <v>62.04929337641868</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>74.01684924015473</v>
+        <v>74.01684924015471</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>49.36488575211701</v>
+        <v>49.364885752117</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>31.78414028490022</v>
+        <v>31.78414028490021</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>56.11079492002385</v>
+        <v>56.11079492002384</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>91.52168930835822</v>
+        <v>91.52168930835821</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>39.88257229622918</v>
+        <v>39.88257229622917</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>209.0883087515116</v>
+        <v>209.0883087515115</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>4.504150178978484</v>
+        <v>4.504150178978483</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>95.40693206789167</v>
+        <v>95.40693206789166</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>4.662730917998138</v>
+        <v>4.662730917998137</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>174.8746095561088</v>
+        <v>174.8746095561087</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>954</v>
       </c>
       <c r="B954">
-        <v>111.2286651610631</v>
+        <v>111.228665161063</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>4.870137292058772</v>
+        <v>4.870137292058771</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>83.37431443357282</v>
+        <v>83.37431443357281</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>89.43590272620543</v>
+        <v>89.43590272620541</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8143,7 +8143,7 @@
         <v>975</v>
       </c>
       <c r="B975">
-        <v>50.45774765528516</v>
+        <v>50.45774765528515</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8167,7 +8167,7 @@
         <v>978</v>
       </c>
       <c r="B978">
-        <v>52.64640217200809</v>
+        <v>52.64640217200808</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>59.04062609352132</v>
+        <v>59.04062609352131</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>70.5521634211003</v>
+        <v>70.55216342110029</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>75.48454900177074</v>
+        <v>75.48454900177073</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>80.18775303020801</v>
+        <v>80.187753030208</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>1005</v>
       </c>
       <c r="B1005">
-        <v>85.13215452346357</v>
+        <v>85.13215452346356</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>12.79131993920535</v>
+        <v>12.79131993920534</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>43.59695464022307</v>
+        <v>43.59695464022306</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>5.26039068714022</v>
+        <v>5.260390687140219</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>21.06884766226025</v>
+        <v>21.06884766226024</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>116.1326228509834</v>
+        <v>116.1326228509833</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>3.501964455172148</v>
+        <v>3.501964455172147</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>1137</v>
       </c>
       <c r="B1137">
-        <v>29.18914277307334</v>
+        <v>29.18914277307333</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>21.46329197319456</v>
+        <v>21.46329197319455</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>20.36556509078462</v>
+        <v>20.36556509078461</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>27.64884931518091</v>
+        <v>27.6488493151809</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>39.10534790169929</v>
+        <v>39.10534790169928</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>40.28994103996845</v>
+        <v>40.28994103996844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>42.43785868231745</v>
+        <v>42.43785868231744</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>25.31547631956701</v>
+        <v>25.315476319567</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>63.8074265373481</v>
+        <v>63.80742653734809</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>58.10338491188234</v>
+        <v>58.10338491188233</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>159.4230251847667</v>
+        <v>159.4230251847666</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>115.2053460846589</v>
+        <v>115.2053460846588</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>139.1477845880975</v>
+        <v>139.1477845880974</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>1247</v>
       </c>
       <c r="B1247">
-        <v>7.421701675956043</v>
+        <v>7.421701675956042</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>117.0446599232975</v>
+        <v>117.0446599232974</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>3.113674636049731</v>
+        <v>3.11367463604973</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>15.59307906880781</v>
+        <v>15.5930790688078</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>1311</v>
       </c>
       <c r="B1311">
-        <v>8.32987021055982</v>
+        <v>8.329870210559818</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>37.30647786639595</v>
+        <v>37.30647786639594</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>96.0982866480938</v>
+        <v>96.09828664809378</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>119.4496008665525</v>
+        <v>119.4496008665524</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>99.59550335243962</v>
+        <v>99.59550335243959</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>4.78948414221917</v>
+        <v>4.789484142219169</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>79.70887495303538</v>
+        <v>79.70887495303536</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>54.97221393482453</v>
+        <v>54.97221393482452</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>79.35455206729381</v>
+        <v>79.3545520672938</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>66.13968586301509</v>
+        <v>66.13968586301507</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>70.93696569486265</v>
+        <v>70.93696569486264</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>53.7949475725219</v>
+        <v>53.79494757252189</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>62.83677525730173</v>
+        <v>62.83677525730172</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>73.56903669308019</v>
+        <v>73.56903669308018</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>77.53516705928418</v>
+        <v>77.53516705928416</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>83.7922337347039</v>
+        <v>83.79223373470388</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>10.22140930828788</v>
+        <v>10.22140930828787</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12999,7 +12999,7 @@
         <v>1582</v>
       </c>
       <c r="B1582">
-        <v>1.350544613911145</v>
+        <v>1.350544613911144</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>7.726788627202503</v>
+        <v>7.726788627202502</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>28.63280602038251</v>
+        <v>28.6328060203825</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>4.728056452515752</v>
+        <v>4.728056452515751</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>7.011284993414694</v>
+        <v>7.011284993414693</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>14.55982781490337</v>
+        <v>14.55982781490336</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13527,7 +13527,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>7.075995078751119</v>
+        <v>7.075995078751118</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>22.72153386347931</v>
+        <v>22.7215338634793</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>23.05305582241302</v>
+        <v>23.05305582241301</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>28.99820699138548</v>
+        <v>28.99820699138547</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>32.5985847013401</v>
+        <v>32.59858470134009</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>43.45159140504704</v>
+        <v>43.45159140504703</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>133.8027549849919</v>
+        <v>133.8027549849918</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>85.44339596652192</v>
+        <v>85.4433959665219</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>150.814649566167</v>
+        <v>150.8146495661669</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>3.123609744260351</v>
+        <v>3.12360974426035</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>5.76321266817149</v>
+        <v>5.763212668171489</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>7.107295065680151</v>
+        <v>7.10729506568015</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>186.3404278016566</v>
+        <v>186.3404278016565</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>88.20471129278911</v>
+        <v>88.2047112927891</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>77.8921275843737</v>
+        <v>77.89212758437368</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>2.740926374107526</v>
+        <v>2.740926374107525</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>6.15510726106944</v>
+        <v>6.155107261069439</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14767,7 +14767,7 @@
         <v>1803</v>
       </c>
       <c r="B1803">
-        <v>5.865523767768165</v>
+        <v>5.865523767768164</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>30.51016047983936</v>
+        <v>30.51016047983935</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>40.43530427514448</v>
+        <v>40.43530427514447</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>46.68709567186829</v>
+        <v>46.68709567186828</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>59.3849845639484</v>
+        <v>59.38498456394839</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>40.54725741191311</v>
+        <v>40.5472574119131</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>13.57874320588065</v>
+        <v>13.57874320588064</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>36.25962811629763</v>
+        <v>36.25962811629762</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>46.09362681857907</v>
+        <v>46.09362681857906</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>94.59688371703172</v>
+        <v>94.5968837170317</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>76.25679118864339</v>
+        <v>76.25679118864338</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>5.631535850500947</v>
+        <v>5.631535850500946</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>88.54379448452029</v>
+        <v>88.54379448452028</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>87.46353463601457</v>
+        <v>87.46353463601456</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>4.149622143509855</v>
+        <v>4.149622143509854</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>8.379545751612918</v>
+        <v>8.379545751612916</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>20.99549198128332</v>
+        <v>20.99549198128331</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>27.31650675733895</v>
+        <v>27.31650675733894</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>27.11912341280053</v>
+        <v>27.11912341280052</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16207,7 +16207,7 @@
         <v>1983</v>
       </c>
       <c r="B1983">
-        <v>6.516141473596352</v>
+        <v>6.516141473596351</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>8.091134542466287</v>
+        <v>8.091134542466285</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>18.58340010468498</v>
+        <v>18.58340010468497</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>26.17859983552854</v>
+        <v>26.17859983552853</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>39.05435354097222</v>
+        <v>39.05435354097221</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16791,7 +16791,7 @@
         <v>2056</v>
       </c>
       <c r="B2056">
-        <v>74.93416159116474</v>
+        <v>74.93416159116472</v>
       </c>
     </row>
     <row r="2057" spans="1:2">
@@ -16911,7 +16911,7 @@
         <v>2071</v>
       </c>
       <c r="B2071">
-        <v>198.4782579388549</v>
+        <v>198.4782579388548</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>73.37297216821575</v>
+        <v>73.37297216821574</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>103.9297309432023</v>
+        <v>103.9297309432022</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>84.89300855591591</v>
+        <v>84.8930085559159</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>89.88635291262791</v>
+        <v>89.8863529126279</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>6.344753530187197</v>
+        <v>6.344753530187196</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>8.600052401101713</v>
+        <v>8.600052401101712</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>79.53010161945195</v>
+        <v>79.53010161945194</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>20.56066248122148</v>
+        <v>20.56066248122147</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>4.865858454894316</v>
+        <v>4.865858454894315</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>39.50538986947203</v>
+        <v>39.50538986947202</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>192.836640444624</v>
+        <v>192.8366404446239</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>127.1989852708358</v>
+        <v>127.1989852708357</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>18.13971985925557</v>
+        <v>18.13971985925556</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>25.94698579367448</v>
+        <v>25.94698579367447</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>31.82458408823549</v>
+        <v>31.82458408823548</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>81.87672142601335</v>
+        <v>81.87672142601333</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>2.938711225968908</v>
+        <v>2.938711225968907</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>5.329584759368163</v>
+        <v>5.329584759368162</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>108.8594788845248</v>
+        <v>108.8594788845247</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>87.82049516110409</v>
+        <v>87.82049516110408</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>35.91820035625716</v>
+        <v>35.91820035625715</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>9.527299860322344</v>
+        <v>9.527299860322342</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>162.1585502596317</v>
+        <v>162.1585502596316</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>86.0500530165509</v>
+        <v>86.05005301655089</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19487,7 +19487,7 @@
         <v>2393</v>
       </c>
       <c r="B2393">
-        <v>58.18222102128224</v>
+        <v>58.18222102128223</v>
       </c>
     </row>
     <row r="2394" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>98.3833615365363</v>
+        <v>98.38336153653628</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>72.72323367550355</v>
+        <v>72.72323367550354</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>60.87525079554134</v>
+        <v>60.87525079554133</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19679,7 +19679,7 @@
         <v>2417</v>
       </c>
       <c r="B2417">
-        <v>70.63422331192548</v>
+        <v>70.63422331192547</v>
       </c>
     </row>
     <row r="2418" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>196.8476106797432</v>
+        <v>196.8476106797431</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>57.52251811325555</v>
+        <v>57.52251811325554</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>89.56778469360303</v>
+        <v>89.56778469360302</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>3.601608608317005</v>
+        <v>3.601608608317004</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>12.22419817229178</v>
+        <v>12.22419817229177</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20447,7 +20447,7 @@
         <v>2513</v>
       </c>
       <c r="B2513">
-        <v>3.975450025233417</v>
+        <v>3.975450025233416</v>
       </c>
     </row>
     <row r="2514" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>5.797677822318064</v>
+        <v>5.797677822318063</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20503,7 +20503,7 @@
         <v>2520</v>
       </c>
       <c r="B2520">
-        <v>9.331762863327494</v>
+        <v>9.331762863327492</v>
       </c>
     </row>
     <row r="2521" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>187.3245603494814</v>
+        <v>187.3245603494813</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>65.4011468455885</v>
+        <v>65.40114684558849</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>67.83656717686428</v>
+        <v>67.83656717686426</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>62.52817145359133</v>
+        <v>62.52817145359132</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>61.13754937514325</v>
+        <v>61.13754937514324</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>162.2016317023149</v>
+        <v>162.2016317023148</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>76.12168543982051</v>
+        <v>76.1216854398205</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>51.06147399492753</v>
+        <v>51.06147399492752</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>84.97711994401172</v>
+        <v>84.9771199440117</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>75.94086060896646</v>
+        <v>75.94086060896645</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>5.13346162029599</v>
+        <v>5.133461620295989</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>6.961316381322935</v>
+        <v>6.961316381322934</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21751,7 +21751,7 @@
         <v>2676</v>
       </c>
       <c r="B2676">
-        <v>12.81740326164621</v>
+        <v>12.8174032616462</v>
       </c>
     </row>
     <row r="2677" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>6.781370763584869</v>
+        <v>6.781370763584868</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>81.76740592859267</v>
+        <v>81.76740592859265</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>92.22300830387482</v>
+        <v>92.22300830387481</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>55.10702661260874</v>
+        <v>55.10702661260873</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>45.99925794413012</v>
+        <v>45.99925794413011</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>33.66360485583543</v>
+        <v>33.66360485583542</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>40.50124525884328</v>
+        <v>40.50124525884327</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>54.61261577038705</v>
+        <v>54.61261577038704</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>5.621249057043934</v>
+        <v>5.621249057043933</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23231,7 +23231,7 @@
         <v>2861</v>
       </c>
       <c r="B2861">
-        <v>41.16387887725658</v>
+        <v>41.16387887725657</v>
       </c>
     </row>
     <row r="2862" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>160.8696238315991</v>
+        <v>160.869623831599</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>58.14910399391351</v>
+        <v>58.1491039939135</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>54.60763356272981</v>
+        <v>54.6076335627298</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>48.56216417722358</v>
+        <v>48.56216417722357</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>0.7641944561510043</v>
+        <v>0.7641944561510042</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>0.5450476562815968</v>
+        <v>0.5450476562815967</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24519,7 +24519,7 @@
         <v>3022</v>
       </c>
       <c r="B3022">
-        <v>1.427651604182945</v>
+        <v>1.427651604182944</v>
       </c>
     </row>
     <row r="3023" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>99.8041699319665</v>
+        <v>99.80416993196648</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>65.68864953451528</v>
+        <v>65.68864953451526</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>61.71079632676484</v>
+        <v>61.71079632676483</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24855,7 +24855,7 @@
         <v>3064</v>
       </c>
       <c r="B3064">
-        <v>43.37773750330438</v>
+        <v>43.37773750330437</v>
       </c>
     </row>
     <row r="3065" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>52.70501637974036</v>
+        <v>52.70501637974035</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>56.99000803600789</v>
+        <v>56.99000803600788</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>54.75797900556308</v>
+        <v>54.75797900556307</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>69.73420215219649</v>
+        <v>69.73420215219647</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25679,7 +25679,7 @@
         <v>3167</v>
       </c>
       <c r="B3167">
-        <v>3.534378112048092</v>
+        <v>3.534378112048091</v>
       </c>
     </row>
     <row r="3168" spans="1:2">
@@ -25951,7 +25951,7 @@
         <v>3201</v>
       </c>
       <c r="B3201">
-        <v>150.7472432272749</v>
+        <v>150.7472432272748</v>
       </c>
     </row>
     <row r="3202" spans="1:2">
@@ -26007,7 +26007,7 @@
         <v>3208</v>
       </c>
       <c r="B3208">
-        <v>67.24778746019363</v>
+        <v>67.24778746019362</v>
       </c>
     </row>
     <row r="3209" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>92.7933245451098</v>
+        <v>92.79332454510978</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>47.62697449285523</v>
+        <v>47.62697449285522</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26207,7 +26207,7 @@
         <v>3233</v>
       </c>
       <c r="B3233">
-        <v>53.59653847934817</v>
+        <v>53.59653847934816</v>
       </c>
     </row>
     <row r="3234" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>81.53763823428217</v>
+        <v>81.53763823428216</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>61.63928699333147</v>
+        <v>61.63928699333146</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>64.97795226576152</v>
+        <v>64.9779522657615</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>89.44059186282401</v>
+        <v>89.44059186282399</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>4.228927166571615</v>
+        <v>4.228927166571614</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>6.798691261969754</v>
+        <v>6.798691261969753</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>90.50033673862345</v>
+        <v>90.50033673862342</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>57.24732440795255</v>
+        <v>57.24732440795254</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>60.2993662045718</v>
+        <v>60.29936620457179</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>105.9009267492385</v>
+        <v>105.9009267492384</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>43.93310712156763</v>
+        <v>43.93310712156762</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>52.69446582234855</v>
+        <v>52.69446582234854</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>155.7306231686724</v>
+        <v>155.7306231686723</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>91.87923597552506</v>
+        <v>91.87923597552503</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>83.02321532925653</v>
+        <v>83.02321532925652</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28391,7 +28391,7 @@
         <v>3506</v>
       </c>
       <c r="B3506">
-        <v>0.5146942888074413</v>
+        <v>0.5146942888074412</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>1.079776281291928</v>
+        <v>1.079776281291927</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>0.7764448255670486</v>
+        <v>0.7764448255670485</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28487,7 +28487,7 @@
         <v>3518</v>
       </c>
       <c r="B3518">
-        <v>0.8176330293405141</v>
+        <v>0.817633029340514</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>2.474879415921143</v>
+        <v>2.474879415921142</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28671,7 +28671,7 @@
         <v>3541</v>
       </c>
       <c r="B3541">
-        <v>2.358805700348931</v>
+        <v>2.35880570034893</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>4.410455367918452</v>
+        <v>4.410455367918451</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>68.10414103516209</v>
+        <v>68.10414103516207</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>48.41181873439031</v>
+        <v>48.4118187343903</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>46.38406021789246</v>
+        <v>46.38406021789245</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>35.89006553654567</v>
+        <v>35.89006553654566</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>50.87801152472553</v>
+        <v>50.87801152472552</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>49.73913746848754</v>
+        <v>49.73913746848753</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>41.76232993820305</v>
+        <v>41.76232993820304</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>89.55782027828855</v>
+        <v>89.55782027828853</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>0.4097865798082261</v>
+        <v>0.409786579808226</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>0.4432523617129651</v>
+        <v>0.443252361712965</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31231,7 +31231,7 @@
         <v>3861</v>
       </c>
       <c r="B3861">
-        <v>0.8073579587250473</v>
+        <v>0.8073579587250472</v>
       </c>
     </row>
     <row r="3862" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>2.250850052547638</v>
+        <v>2.250850052547637</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>85.15853091694309</v>
+        <v>85.15853091694308</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>66.48873347006075</v>
+        <v>66.48873347006074</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>42.89622178678379</v>
+        <v>42.89622178678378</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>64.88123882300327</v>
+        <v>64.88123882300326</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>48.76614162013188</v>
+        <v>48.76614162013187</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>59.43539278259815</v>
+        <v>59.43539278259814</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>44.34604421504147</v>
+        <v>44.34604421504146</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>3.778418365941393</v>
+        <v>3.778418365941394</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32495,7 +32495,7 @@
         <v>4019</v>
       </c>
       <c r="B4019">
-        <v>3.279201158685659</v>
+        <v>3.279201158685658</v>
       </c>
     </row>
     <row r="4020" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>0.9508338164120956</v>
+        <v>0.9508338164120954</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>0.742680111202875</v>
+        <v>0.7426801112028749</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32559,7 +32559,7 @@
         <v>4027</v>
       </c>
       <c r="B4027">
-        <v>0.7983225786031179</v>
+        <v>0.7983225786031178</v>
       </c>
     </row>
     <row r="4028" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>175.8071616011292</v>
+        <v>175.8071616011291</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>44.21328303452788</v>
+        <v>44.21328303452787</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>39.76534388076464</v>
+        <v>39.76534388076463</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>54.93616619706918</v>
+        <v>54.93616619706917</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>45.49488268659394</v>
+        <v>45.49488268659393</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>55.03053507151813</v>
+        <v>55.03053507151812</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>34.36931991693195</v>
+        <v>34.36931991693194</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>0.4767386585904104</v>
+        <v>0.4767386585904103</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>0.4811347241703306</v>
+        <v>0.4811347241703305</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>0.4711439324623653</v>
+        <v>0.4711439324623652</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -33887,7 +33887,7 @@
         <v>4193</v>
       </c>
       <c r="B4193">
-        <v>0.3810568258882544</v>
+        <v>0.3810568258882543</v>
       </c>
     </row>
     <row r="4194" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>3.152828926814887</v>
+        <v>3.152828926814886</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>5.164673685913424</v>
+        <v>5.164673685913423</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>49.9123424523364</v>
+        <v>49.91234245233639</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>62.1128897918082</v>
+        <v>62.11288979180819</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>57.57058176359601</v>
+        <v>57.570581763596</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>49.24765733665247</v>
+        <v>49.24765733665246</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>40.64162628636206</v>
+        <v>40.64162628636205</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>46.850043169364</v>
+        <v>46.85004316936399</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>55.3189169735609</v>
+        <v>55.31891697356089</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>1.4918077852563</v>
+        <v>1.491807785256299</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>62.0340536824083</v>
+        <v>62.03405368240829</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>25.63313601837204</v>
+        <v>25.63313601837203</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>21.19170304166709</v>
+        <v>21.19170304166708</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>24.96185680431823</v>
+        <v>24.96185680431822</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>50.95684763412543</v>
+        <v>50.95684763412542</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>34.83032066074625</v>
+        <v>34.83032066074624</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>39.83890471146864</v>
+        <v>39.83890471146863</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>96.41626872504136</v>
+        <v>96.41626872504132</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>51.64263386459298</v>
+        <v>51.64263386459297</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>37.29885801939076</v>
+        <v>37.29885801939075</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>28.02187013318907</v>
+        <v>28.02187013318906</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>25.93417858928498</v>
+        <v>25.93417858928497</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>83.58151565790639</v>
+        <v>83.58151565790638</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>62.69903186913089</v>
+        <v>62.69903186913088</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>44.32025396363927</v>
+        <v>44.32025396363926</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>36.57790326428385</v>
+        <v>36.57790326428384</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>56.76346412312267</v>
+        <v>56.76346412312266</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>45.23991088295857</v>
+        <v>45.23991088295856</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>32.7767718928462</v>
+        <v>32.77677189284619</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>0.4956710476879333</v>
+        <v>0.4956710476879332</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39327,7 +39327,7 @@
         <v>4873</v>
       </c>
       <c r="B4873">
-        <v>0.7810108723493924</v>
+        <v>0.7810108723493923</v>
       </c>
     </row>
     <row r="4874" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>1.534364630780314</v>
+        <v>1.534364630780313</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39447,7 +39447,7 @@
         <v>4888</v>
       </c>
       <c r="B4888">
-        <v>36.62655305670163</v>
+        <v>36.62655305670162</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>29.84781993246472</v>
+        <v>29.84781993246471</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>36.51694448824229</v>
+        <v>36.51694448824228</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>23.01085359284579</v>
+        <v>23.01085359284578</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>99.94249946221466</v>
+        <v>99.94249946221464</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>37.61742623841564</v>
+        <v>37.61742623841563</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41103,7 +41103,7 @@
         <v>5095</v>
       </c>
       <c r="B5095">
-        <v>82.07806122957369</v>
+        <v>82.07806122957368</v>
       </c>
     </row>
     <row r="5096" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>71.00847502829602</v>
+        <v>71.008475028296</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>53.05142634743807</v>
+        <v>53.05142634743806</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>77.06889103677398</v>
+        <v>77.06889103677396</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>38.75893793400158</v>
+        <v>38.75893793400157</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>28.59330004437096</v>
+        <v>28.59330004437095</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>49.84112618994169</v>
+        <v>49.84112618994168</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>1.229849168059243</v>
+        <v>1.229849168059242</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>2.547141941923871</v>
+        <v>2.54714194192387</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>62.02379619605515</v>
+        <v>62.02379619605514</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>51.76220684836681</v>
+        <v>51.7622068483668</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>68.75915480657019</v>
+        <v>68.75915480657018</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>31.37618539908363</v>
+        <v>31.37618539908362</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>51.26046923017859</v>
+        <v>51.26046923017858</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>28.82084039878763</v>
+        <v>28.82084039878762</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>0.6579122439804674</v>
+        <v>0.6579122439804673</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>70.92436364020021</v>
+        <v>70.9243636402002</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>99.22916455411294</v>
+        <v>99.22916455411293</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>60.41659462003634</v>
+        <v>60.41659462003633</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>47.88458393583855</v>
+        <v>47.88458393583854</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>40.20319201252469</v>
+        <v>40.20319201252468</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>34.13750072535083</v>
+        <v>34.13750072535082</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>31.8017245472199</v>
+        <v>31.80172454721989</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -46039,7 +46039,7 @@
         <v>5712</v>
       </c>
       <c r="B5712">
-        <v>0.6366880393606128</v>
+        <v>0.6366880393606127</v>
       </c>
     </row>
     <row r="5713" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>1.52173326901401</v>
+        <v>1.521733269014009</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>50.45247237658926</v>
+        <v>50.45247237658925</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>43.37011765629919</v>
+        <v>43.37011765629918</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>52.77125043447782</v>
+        <v>52.77125043447781</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>140.9446031261302</v>
+        <v>140.9446031261301</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>42.65678274819747</v>
+        <v>42.65678274819746</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>33.48014238563343</v>
+        <v>33.48014238563342</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>66.36622977590031</v>
+        <v>66.36622977590029</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>40.95257465838175</v>
+        <v>40.95257465838174</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>85.01814988942431</v>
+        <v>85.01814988942429</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>86.70711828522964</v>
+        <v>86.70711828522963</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>78.8504698807963</v>
+        <v>78.85046988079628</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>47.43354760733874</v>
+        <v>47.43354760733873</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>60.01157044460636</v>
+        <v>60.01157044460635</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>37.19188709027937</v>
+        <v>37.19188709027936</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>55.6418812581657</v>
+        <v>55.64188125816569</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>50.03250157818755</v>
+        <v>50.03250157818754</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>43.87185527448741</v>
+        <v>43.8718552744874</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>30.38912214087222</v>
+        <v>30.38912214087221</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>0.482746614882968</v>
+        <v>0.4827466148829679</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>63.60901744417437</v>
+        <v>63.60901744417436</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>47.8819462964906</v>
+        <v>47.88194629649059</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>51.20918179841285</v>
+        <v>51.20918179841284</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>119.679368560863</v>
+        <v>119.6793685608629</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>57.14299111818911</v>
+        <v>57.1429911181891</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>47.54550074410737</v>
+        <v>47.54550074410736</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>26.69384802859905</v>
+        <v>26.69384802859904</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>33.59737080109797</v>
+        <v>33.59737080109796</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>43.04158502195982</v>
+        <v>43.04158502195981</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>2.733019317484443</v>
+        <v>2.733019317484442</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>7.473487328487502</v>
+        <v>7.473487328487501</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>9.114685144991036</v>
+        <v>9.114685144991034</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51463,7 +51463,7 @@
         <v>6390</v>
       </c>
       <c r="B6390">
-        <v>13.37564497608834</v>
+        <v>13.37564497608833</v>
       </c>
     </row>
     <row r="6391" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>88.12587518338921</v>
+        <v>88.1258751833892</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>60.72197464232146</v>
+        <v>60.72197464232145</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>91.64741678394394</v>
+        <v>91.64741678394392</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>87.37678560857081</v>
+        <v>87.3767856085708</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>74.31021334985473</v>
+        <v>74.31021334985472</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>59.77682054263862</v>
+        <v>59.77682054263861</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>69.10820241361586</v>
+        <v>69.10820241361584</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>47.46138935601157</v>
+        <v>47.46138935601156</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>42.33557688982464</v>
+        <v>42.33557688982463</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>41.13310641819714</v>
+        <v>41.13310641819713</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>49.79042490025328</v>
+        <v>49.79042490025327</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>0.7356932976411885</v>
+        <v>0.7356932976411884</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>2.765391944414975</v>
+        <v>2.765391944414974</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>3.357421818904372</v>
+        <v>3.357421818904371</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52807,7 +52807,7 @@
         <v>6558</v>
       </c>
       <c r="B6558">
-        <v>6.834270086063242</v>
+        <v>6.834270086063241</v>
       </c>
     </row>
     <row r="6559" spans="1:2">
@@ -52879,7 +52879,7 @@
         <v>6567</v>
       </c>
       <c r="B6567">
-        <v>69.55660110276771</v>
+        <v>69.5566011027677</v>
       </c>
     </row>
     <row r="6568" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>62.24858168270841</v>
+        <v>62.2485816827084</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>90.96925040048158</v>
+        <v>90.96925040048156</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>50.7326482895495</v>
+        <v>50.73264828954949</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>73.31934016814073</v>
+        <v>73.31934016814071</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>45.16371241290662</v>
+        <v>45.16371241290661</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>48.22835626418831</v>
+        <v>48.2283562641883</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -54135,7 +54135,7 @@
         <v>6724</v>
       </c>
       <c r="B6724">
-        <v>7.831766673250996</v>
+        <v>7.831766673250995</v>
       </c>
     </row>
     <row r="6725" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>2.867591677016959</v>
+        <v>2.867591677016958</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>7.370795236540567</v>
+        <v>7.370795236540566</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>71.56413771759793</v>
+        <v>71.56413771759792</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>57.98879413576575</v>
+        <v>57.98879413576574</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>3.140168257944717</v>
+        <v>3.140168257944716</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -55095,7 +55095,7 @@
         <v>6844</v>
       </c>
       <c r="B6844">
-        <v>6.884502462089797</v>
+        <v>6.884502462089796</v>
       </c>
     </row>
     <row r="6845" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>29.73557372465742</v>
+        <v>29.73557372465741</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>7.228421325958886</v>
+        <v>7.228421325958885</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>25.28479178181917</v>
+        <v>25.28479178181916</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>28.70742190682569</v>
+        <v>28.70742190682568</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>39.40574571632717</v>
+        <v>39.40574571632716</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55311,7 +55311,7 @@
         <v>6871</v>
       </c>
       <c r="B6871">
-        <v>51.35718267293683</v>
+        <v>51.35718267293682</v>
       </c>
     </row>
     <row r="6872" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>32.72607060315779</v>
+        <v>32.72607060315778</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>26.68180280891007</v>
+        <v>26.68180280891006</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>36.38183873941941</v>
+        <v>36.3818387394194</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>45.80319341926568</v>
+        <v>45.80319341926567</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>211.5369172795271</v>
+        <v>211.536917279527</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>5.985800122034782</v>
+        <v>5.985800122034781</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55887,7 +55887,7 @@
         <v>6943</v>
       </c>
       <c r="B6943">
-        <v>194.8890169283694</v>
+        <v>194.8890169283693</v>
       </c>
     </row>
     <row r="6944" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>90.20755877100076</v>
+        <v>90.20755877100072</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>56.95659793760049</v>
+        <v>56.95659793760048</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>73.91280902142995</v>
+        <v>73.91280902142994</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>7.057707445938652</v>
+        <v>7.057707445938651</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>2.87875475287957</v>
+        <v>2.878754752879569</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>70.79658466734386</v>
+        <v>70.79658466734385</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>62.20227645859991</v>
+        <v>62.2022764585999</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>49.97095666006867</v>
+        <v>49.97095666006866</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -58007,7 +58007,7 @@
         <v>7208</v>
       </c>
       <c r="B7208">
-        <v>28.51502076994452</v>
+        <v>28.51502076994451</v>
       </c>
     </row>
     <row r="7209" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>22.01505681768227</v>
+        <v>22.01505681768226</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>6.998624324544524</v>
+        <v>6.998624324544523</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>3.965837295165325</v>
+        <v>3.965837295165324</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58351,7 +58351,7 @@
         <v>7251</v>
       </c>
       <c r="B7251">
-        <v>5.69709584184949</v>
+        <v>5.697095841849489</v>
       </c>
     </row>
     <row r="7252" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>10.99831132467524</v>
+        <v>10.99831132467523</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>89.55313114166997</v>
+        <v>89.55313114166995</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>86.31498923550076</v>
+        <v>86.31498923550075</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58903,7 +58903,7 @@
         <v>7320</v>
       </c>
       <c r="B7320">
-        <v>2.344087672787358</v>
+        <v>2.344087672787357</v>
       </c>
     </row>
     <row r="7321" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>93.65700489604478</v>
+        <v>93.65700489604475</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59111,7 +59111,7 @@
         <v>7346</v>
       </c>
       <c r="B7346">
-        <v>5.500474482011594</v>
+        <v>5.500474482011593</v>
       </c>
     </row>
     <row r="7347" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>42.21864154539876</v>
+        <v>42.21864154539875</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>15.70271694437102</v>
+        <v>15.70271694437101</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>5.411703264401072</v>
+        <v>5.411703264401071</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>37.1590631339493</v>
+        <v>37.15906313394929</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>29.47327514505552</v>
+        <v>29.47327514505551</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>80.03476994802679</v>
+        <v>80.03476994802678</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>64.49174741262235</v>
+        <v>64.49174741262233</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>87.65696152153106</v>
+        <v>87.65696152153104</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>58.08023229982809</v>
+        <v>58.08023229982808</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60095,7 +60095,7 @@
         <v>7469</v>
       </c>
       <c r="B7469">
-        <v>3.265163055933781</v>
+        <v>3.26516305593378</v>
       </c>
     </row>
     <row r="7470" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>4.148039559901084</v>
+        <v>4.148039559901083</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>78.63330424114824</v>
+        <v>78.63330424114822</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>204.2417929851689</v>
+        <v>204.2417929851688</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>140.0583563052183</v>
+        <v>140.0583563052182</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60375,7 +60375,7 @@
         <v>7504</v>
       </c>
       <c r="B7504">
-        <v>101.1525897808474</v>
+        <v>101.1525897808473</v>
       </c>
     </row>
     <row r="7505" spans="1:2">
@@ -60383,7 +60383,7 @@
         <v>7505</v>
       </c>
       <c r="B7505">
-        <v>103.1548511169817</v>
+        <v>103.1548511169816</v>
       </c>
     </row>
     <row r="7506" spans="1:2">
@@ -60503,7 +60503,7 @@
         <v>7520</v>
       </c>
       <c r="B7520">
-        <v>54.90861751943501</v>
+        <v>54.908617519435</v>
       </c>
     </row>
     <row r="7521" spans="1:2">
@@ -60575,7 +60575,7 @@
         <v>7529</v>
       </c>
       <c r="B7529">
-        <v>22.22788500595814</v>
+        <v>22.22788500595813</v>
       </c>
     </row>
     <row r="7530" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>74.78909142702737</v>
+        <v>74.78909142702736</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>77.61664080803203</v>
+        <v>77.61664080803202</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>48.59293663628302</v>
+        <v>48.59293663628301</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>54.59503150806737</v>
+        <v>54.59503150806736</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60951,7 +60951,7 @@
         <v>7576</v>
       </c>
       <c r="B7576">
-        <v>19.72095534124899</v>
+        <v>19.72095534124898</v>
       </c>
     </row>
     <row r="7577" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>45.88730480736148</v>
+        <v>45.88730480736147</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61047,7 +61047,7 @@
         <v>7588</v>
       </c>
       <c r="B7588">
-        <v>57.35663990537323</v>
+        <v>57.35663990537322</v>
       </c>
     </row>
     <row r="7589" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>63.02053079854239</v>
+        <v>63.02053079854238</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>24.56389564091999</v>
+        <v>24.56389564091998</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>40.91916455997436</v>
+        <v>40.91916455997435</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>59.10187794060154</v>
+        <v>59.10187794060153</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>28.19832820556707</v>
+        <v>28.19832820556706</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>2.660619048093544</v>
+        <v>2.660619048093543</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61599,7 +61599,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>4.069115529189583</v>
+        <v>4.069115529189582</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>91.09439173398998</v>
+        <v>91.09439173398997</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61799,7 +61799,7 @@
         <v>7682</v>
       </c>
       <c r="B7682">
-        <v>6.682400673828933</v>
+        <v>6.682400673828932</v>
       </c>
     </row>
     <row r="7683" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>26.99723516782127</v>
+        <v>26.99723516782126</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62231,7 +62231,7 @@
         <v>7736</v>
       </c>
       <c r="B7736">
-        <v>211.4906120554186</v>
+        <v>211.4906120554185</v>
       </c>
     </row>
     <row r="7737" spans="1:2">
@@ -62295,7 +62295,7 @@
         <v>7744</v>
       </c>
       <c r="B7744">
-        <v>94.23582019740094</v>
+        <v>94.23582019740093</v>
       </c>
     </row>
     <row r="7745" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>6.989949421800149</v>
+        <v>6.989949421800148</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>5.555776987006989</v>
+        <v>5.555776987006988</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62495,7 +62495,7 @@
         <v>7769</v>
       </c>
       <c r="B7769">
-        <v>74.28178545910458</v>
+        <v>74.28178545910457</v>
       </c>
     </row>
     <row r="7770" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>6.111703440243695</v>
+        <v>6.111703440243694</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>9.27054032335114</v>
+        <v>9.270540323351138</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>5.677401468051447</v>
+        <v>5.677401468051446</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>9.207647278454417</v>
+        <v>9.207647278454411</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>7.83545936833813</v>
+        <v>7.835459368338129</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>7.489664849821608</v>
+        <v>7.489664849821607</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>95.59361831951897</v>
+        <v>95.59361831951894</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>5.772737476927984</v>
+        <v>5.772737476927983</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63727,7 +63727,7 @@
         <v>7923</v>
       </c>
       <c r="B7923">
-        <v>7.925197720376234</v>
+        <v>7.925197720376233</v>
       </c>
     </row>
     <row r="7924" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>83.26499893615214</v>
+        <v>83.26499893615212</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>89.23397678056776</v>
+        <v>89.23397678056774</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>4.640985046929466</v>
+        <v>4.640985046929465</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>72.20596329226628</v>
+        <v>72.20596329226626</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>88.37879548975395</v>
+        <v>88.37879548975394</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64759,7 +64759,7 @@
         <v>8052</v>
       </c>
       <c r="B8052">
-        <v>37.69626234781554</v>
+        <v>37.69626234781553</v>
       </c>
     </row>
     <row r="8053" spans="1:2">
@@ -64855,7 +64855,7 @@
         <v>8064</v>
       </c>
       <c r="B8064">
-        <v>44.10660517645515</v>
+        <v>44.10660517645514</v>
       </c>
     </row>
     <row r="8065" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>68.8705218012615</v>
+        <v>68.87052180126149</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>86.01957362853013</v>
+        <v>86.01957362853011</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65271,7 +65271,7 @@
         <v>8116</v>
       </c>
       <c r="B8116">
-        <v>8.115107753428786</v>
+        <v>8.115107753428784</v>
       </c>
     </row>
     <row r="8117" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>4.278280329482185</v>
+        <v>4.278280329482184</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>41.62517269210954</v>
+        <v>41.62517269210953</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65791,7 +65791,7 @@
         <v>8181</v>
       </c>
       <c r="B8181">
-        <v>8.581471697250585</v>
+        <v>8.581471697250583</v>
       </c>
     </row>
     <row r="8182" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>50.66641423481204</v>
+        <v>50.66641423481203</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>61.60089468726683</v>
+        <v>61.60089468726682</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65943,7 +65943,7 @@
         <v>8200</v>
       </c>
       <c r="B8200">
-        <v>35.66352162366045</v>
+        <v>35.66352162366044</v>
       </c>
     </row>
     <row r="8201" spans="1:2">
@@ -65959,7 +65959,7 @@
         <v>8202</v>
       </c>
       <c r="B8202">
-        <v>41.0158780027326</v>
+        <v>41.01587800273259</v>
       </c>
     </row>
     <row r="8203" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>75.24217925279781</v>
+        <v>75.2421792527978</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>81.02300549039285</v>
+        <v>81.02300549039283</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>39.44941330108771</v>
+        <v>39.4494133010877</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>76.91121881797417</v>
+        <v>76.91121881797416</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66383,7 +66383,7 @@
         <v>8255</v>
       </c>
       <c r="B8255">
-        <v>8.702627264633184</v>
+        <v>8.702627264633183</v>
       </c>
     </row>
     <row r="8256" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>21.02632305455049</v>
+        <v>21.02632305455048</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>44.92661794262959</v>
+        <v>44.92661794262958</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>172.0664028636558</v>
+        <v>172.0664028636557</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>4.1085628909934</v>
+        <v>4.108562890993399</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>6.363129084311264</v>
+        <v>6.363129084311263</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>36.80474024820773</v>
+        <v>36.80474024820772</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>49.95601003709694</v>
+        <v>49.95601003709693</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>6.820671589869355</v>
+        <v>6.820671589869354</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>38.41223489526521</v>
+        <v>38.4122348952652</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>54.68148746447247</v>
+        <v>54.68148746447246</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66831,7 +66831,7 @@
         <v>8311</v>
       </c>
       <c r="B8311">
-        <v>52.54910258717252</v>
+        <v>52.54910258717251</v>
       </c>
     </row>
     <row r="8312" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>62.65067514775177</v>
+        <v>62.65067514775176</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>166.9148001460667</v>
+        <v>166.9148001460666</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>6.33335306678327</v>
+        <v>6.333353066783269</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>49.79276946856257</v>
+        <v>49.79276946856256</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67303,7 +67303,7 @@
         <v>8370</v>
       </c>
       <c r="B8370">
-        <v>23.81231496227297</v>
+        <v>23.81231496227296</v>
       </c>
     </row>
     <row r="8371" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>32.71845075615259</v>
+        <v>32.71845075615258</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>37.76513404190096</v>
+        <v>37.76513404190095</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>39.90279419789681</v>
+        <v>39.9027941978968</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>48.56743945591949</v>
+        <v>48.56743945591948</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>38.4327498679715</v>
+        <v>38.43274986797149</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>34.26469355612985</v>
+        <v>34.26469355612984</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>36.30300263001951</v>
+        <v>36.3030026300195</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>45.62236858841163</v>
+        <v>45.62236858841162</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>45.58661392169494</v>
+        <v>45.58661392169493</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>120.9902753167952</v>
+        <v>120.9902753167951</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>113.2408909125119</v>
+        <v>113.2408909125118</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67727,7 +67727,7 @@
         <v>8423</v>
       </c>
       <c r="B8423">
-        <v>5.785310224486555</v>
+        <v>5.785310224486554</v>
       </c>
     </row>
     <row r="8424" spans="1:2">
@@ -67735,7 +67735,7 @@
         <v>8424</v>
       </c>
       <c r="B8424">
-        <v>6.854931594288867</v>
+        <v>6.854931594288866</v>
       </c>
     </row>
     <row r="8425" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>121.8014959518098</v>
+        <v>121.8014959518097</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67927,7 +67927,7 @@
         <v>8448</v>
       </c>
       <c r="B8448">
-        <v>4.339708019185603</v>
+        <v>4.339708019185602</v>
       </c>
     </row>
     <row r="8449" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>6.412335711702503</v>
+        <v>6.412335711702502</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>10.46673907475129</v>
+        <v>10.46673907475128</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>13.33112748531568</v>
+        <v>13.33112748531567</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>8.949656843120833</v>
+        <v>8.949656843120831</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>50.49819145862043</v>
+        <v>50.49819145862042</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>164.124470786972</v>
+        <v>164.1244707869719</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>65.91783108674845</v>
+        <v>65.91783108674844</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>46.45029427262993</v>
+        <v>46.45029427262992</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>42.94956071582016</v>
+        <v>42.94956071582015</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>47.3239390388794</v>
+        <v>47.32393903887939</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>79.30883298526264</v>
+        <v>79.30883298526263</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68807,7 +68807,7 @@
         <v>8558</v>
       </c>
       <c r="B8558">
-        <v>56.74031151106842</v>
+        <v>56.74031151106841</v>
       </c>
     </row>
     <row r="8559" spans="1:2">
@@ -68839,7 +68839,7 @@
         <v>8562</v>
       </c>
       <c r="B8562">
-        <v>55.64246740024302</v>
+        <v>55.64246740024301</v>
       </c>
     </row>
     <row r="8563" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>77.95836163911116</v>
+        <v>77.95836163911115</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>51.16580728469097</v>
+        <v>51.16580728469096</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>78.43987735563175</v>
+        <v>78.43987735563174</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>71.25553391388753</v>
+        <v>71.25553391388752</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>50.77104059561414</v>
+        <v>50.77104059561413</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>148.1125345897094</v>
+        <v>148.1125345897093</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>39.89517435089162</v>
+        <v>39.89517435089161</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>42.16266497701445</v>
+        <v>42.16266497701444</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>157.1824970942007</v>
+        <v>157.1824970942006</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>5.761805927185915</v>
+        <v>5.761805927185914</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>137.780022050665</v>
+        <v>137.7800220506649</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>5.128215648703953</v>
+        <v>5.128215648703952</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>22.65210533442044</v>
+        <v>22.65210533442043</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>33.17945149996689</v>
+        <v>33.17945149996688</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>37.46708079558237</v>
+        <v>37.46708079558236</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>12.53936676726819</v>
+        <v>12.53936676726818</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>38.99339476493066</v>
+        <v>38.99339476493065</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>53.51506473060032</v>
+        <v>53.51506473060031</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>65.83166820138202</v>
+        <v>65.831668201382</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>191.1746345843755</v>
+        <v>191.1746345843754</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>3.266921482165749</v>
+        <v>3.266921482165748</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
